--- a/SiGeFa/Agregados/Tareas.xlsx
+++ b/SiGeFa/Agregados/Tareas.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="23610" windowHeight="10380"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19320" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -79,13 +79,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -101,29 +120,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -146,63 +155,63 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,13 +219,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -225,13 +234,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,7 +548,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -547,16 +559,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="30.75" thickBot="1">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,7 +608,7 @@
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -607,7 +619,7 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -618,7 +630,7 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -653,6 +665,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -666,6 +679,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -678,6 +692,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>